--- a/Log.xlsx
+++ b/Log.xlsx
@@ -44,12 +44,56 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="00ff847e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="00800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE1111"/>
+        <bgColor rgb="FFEE1111"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE1100"/>
+        <bgColor rgb="FFEE1111"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEE11"/>
+        <bgColor rgb="00FFEE11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -80,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -88,27 +132,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -485,7 +521,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -522,107 +558,107 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Outward Hound Hide-A-Squirrel Squeaky Puzzle Plush Dog Toy - Hide and Seek Activity for Dogs</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Visit the Outward Hound Store</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>Outward Hound, Lightweight Dog Backpacks, Carriers &amp; Pet Travel Products</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>Outward Hound</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C3" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Outward Hound, Lightweight Dog Backpacks, Carriers &amp; Pet Travel Products</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>Nina Ottosson By Outward Hound - Interactive Puzzle Game Dog Toys</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Visit the Outward Hound Store</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>Outward Hound Fun Feeder Dog Bowl</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Outward Hound</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C5" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nina Ottosson By Outward Hound - Interactive Puzzle Game Dog Toys</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="E5" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>Outward Hound (4 pc. Multi-Pack) Invincibles Plush Stuffing-Less Dog Toys with Squeaker</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Visit the Outward Hound Store</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Outward Hound Fun Feeder Dog Bowl</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Visit the Outward Hound Store</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Outward Hound (4 pc. Multi-Pack) Invincibles Plush Stuffing-Less Dog Toys with Squeaker</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Outward Hound</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -641,7 +677,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Logged'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Actual'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Actual'!$A$1:$F$6</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -44,32 +44,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <bgColor rgb="00ff847e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <bgColor rgb="00800000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -79,14 +59,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEE1100"/>
-        <bgColor rgb="FFEE1111"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEE11"/>
-        <bgColor rgb="00FFEE11"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -124,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -134,12 +108,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +491,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -531,134 +501,134 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Style</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>Outward Hound Hide-A-Squirrel Squeaky Puzzle Plush Dog Toy - Hide and Seek Activity for Dogs</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Outward Hound</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Outward Hound, Lightweight Dog Backpacks, Carriers &amp; Pet Travel Products</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Outward Hound</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Nina Ottosson By Outward Hound - Interactive Puzzle Game Dog Toys</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Visit the Outward Hound Store</t>
         </is>
       </c>
-      <c r="C2" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" s="12" t="n">
+      <c r="C4" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Outward Hound Fun Feeder Dog Bowl</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>Outward Hound</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Outward Hound, Lightweight Dog Backpacks, Carriers &amp; Pet Travel Products</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Outward Hound</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="12" t="n">
+      <c r="D5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>Nina Ottosson By Outward Hound - Interactive Puzzle Game Dog Toys</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="E5" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Outward Hound (4 pc. Multi-Pack) Invincibles Plush Stuffing-Less Dog Toys with Squeaker</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Visit the Outward Hound Store</t>
         </is>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Outward Hound Fun Feeder Dog Bowl</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>Outward Hound</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="inlineStr">
-        <is>
-          <t>Outward Hound (4 pc. Multi-Pack) Invincibles Plush Stuffing-Less Dog Toys with Squeaker</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>Visit the Outward Hound Store</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12" t="n">
+      <c r="C6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -677,39 +647,45 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="82.81640625" customWidth="1" style="3" min="1" max="1"/>
     <col width="25.7265625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="40.6328125" customWidth="1" style="3" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Style</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Color</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>URL</t>
         </is>
       </c>
     </row>
@@ -844,7 +820,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:F6"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId21"/>
     <hyperlink ref="F3" r:id="rId22"/>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="150" yWindow="2020" windowWidth="16670" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Logged" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Logged'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Actual'!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Logged'!$B$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Actual'!$A$1:$I$6</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -101,14 +101,14 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -488,42 +488,60 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="82.7265625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="25.6328125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="82.7265625" customWidth="1" style="7" min="1" max="1"/>
+    <col width="25.6328125" customWidth="1" style="7" min="2" max="2"/>
+    <col width="11.7265625" customWidth="1" style="7" min="6" max="6"/>
+    <col width="12.453125" customWidth="1" style="7" min="7" max="7"/>
+    <col width="11.81640625" customWidth="1" style="7" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>Color</t>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Style Ct</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Size Ct</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Color Ct</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Style Selected</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>Size Selected</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>Color Selected</t>
         </is>
       </c>
     </row>
@@ -533,9 +551,9 @@
           <t>Outward Hound Hide-A-Squirrel Squeaky Puzzle Plush Dog Toy - Hide and Seek Activity for Dogs</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Outward Hound</t>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Visit the Outward Hound Store</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
@@ -547,6 +565,17 @@
       <c r="E2" s="8" t="n">
         <v>0</v>
       </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Squirrel</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -554,9 +583,9 @@
           <t>Outward Hound, Lightweight Dog Backpacks, Carriers &amp; Pet Travel Products</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>Outward Hound</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Visit the Outward Hound Store</t>
         </is>
       </c>
       <c r="C3" s="8" t="n">
@@ -568,6 +597,21 @@
       <c r="E3" s="8" t="n">
         <v>3</v>
       </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Treat Bag</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>One-Size</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
@@ -575,7 +619,7 @@
           <t>Nina Ottosson By Outward Hound - Interactive Puzzle Game Dog Toys</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Visit the Outward Hound Store</t>
         </is>
@@ -589,6 +633,17 @@
       <c r="E4" s="8" t="n">
         <v>0</v>
       </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Dog Smart</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>Level 1 (Easy)</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
@@ -596,9 +651,9 @@
           <t>Outward Hound Fun Feeder Dog Bowl</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Outward Hound</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Visit the Outward Hound Store</t>
         </is>
       </c>
       <c r="C5" s="8" t="n">
@@ -610,6 +665,17 @@
       <c r="E5" s="8" t="n">
         <v>0</v>
       </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Purple Flower</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>Large/Regular</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
@@ -617,7 +683,7 @@
           <t>Outward Hound (4 pc. Multi-Pack) Invincibles Plush Stuffing-Less Dog Toys with Squeaker</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Visit the Outward Hound Store</t>
         </is>
@@ -631,9 +697,12 @@
       <c r="E6" s="8" t="n">
         <v>0</v>
       </c>
+      <c r="F6" s="8" t="n"/>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="8" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="B1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -644,46 +713,64 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="82.81640625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="25.7265625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="40.6328125" customWidth="1" style="3" min="6" max="6"/>
+    <col width="82.81640625" customWidth="1" style="7" min="1" max="1"/>
+    <col width="25.7265625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="10.6328125" customWidth="1" style="7" min="6" max="6"/>
+    <col width="11.90625" customWidth="1" style="7" min="7" max="7"/>
+    <col width="10.90625" customWidth="1" style="7" min="8" max="8"/>
+    <col width="40.6328125" customWidth="1" style="7" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Style Ct</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Size Ct</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Color Ct</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Style Selected</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>Size Selected</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>Color Selected</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
@@ -709,14 +796,24 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Squirrel</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>https://www.amazon.com/dp/B005VS9WO6</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Outward Hound, Lightweight Dog Backpacks, Carriers &amp; Pet Travel Products</t>
         </is>
@@ -735,14 +832,29 @@
       <c r="E3" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Treat Bag</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>One-Size</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>https://www.amazon.com/dp/B0081XINMA</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Nina Ottosson By Outward Hound - Interactive Puzzle Game Dog Toys</t>
         </is>
@@ -761,14 +873,24 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dog Smart</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Level 1 (Easy)</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>https://www.amazon.com/dp/B0711Y9Y8W</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Outward Hound Fun Feeder Dog Bowl</t>
         </is>
@@ -787,14 +909,24 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Purple Flower</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Large/Regular</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>https://www.amazon.com/dp/B00FPKNRG4</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Outward Hound (4 pc. Multi-Pack) Invincibles Plush Stuffing-Less Dog Toys with Squeaker</t>
         </is>
@@ -813,40 +945,40 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>https://www.amazon.com/dp/B075FY228K</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F6"/>
+  <autoFilter ref="A1:I6"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId21"/>
-    <hyperlink ref="F3" r:id="rId22"/>
-    <hyperlink ref="F4" r:id="rId23"/>
-    <hyperlink ref="F5" r:id="rId24"/>
-    <hyperlink ref="F6" r:id="rId25"/>
-    <hyperlink ref="F2" r:id="rId21"/>
-    <hyperlink ref="F3" r:id="rId22"/>
-    <hyperlink ref="F4" r:id="rId23"/>
-    <hyperlink ref="F5" r:id="rId24"/>
-    <hyperlink ref="F6" r:id="rId25"/>
-    <hyperlink ref="F2" r:id="rId21"/>
-    <hyperlink ref="F3" r:id="rId22"/>
-    <hyperlink ref="F4" r:id="rId23"/>
-    <hyperlink ref="F5" r:id="rId24"/>
-    <hyperlink ref="F6" r:id="rId25"/>
-    <hyperlink ref="F2" r:id="rId21"/>
-    <hyperlink ref="F3" r:id="rId22"/>
-    <hyperlink ref="F4" r:id="rId23"/>
-    <hyperlink ref="F5" r:id="rId24"/>
-    <hyperlink ref="F6" r:id="rId25"/>
-    <hyperlink ref="F2" r:id="rId21"/>
-    <hyperlink ref="F3" r:id="rId22"/>
-    <hyperlink ref="F4" r:id="rId23"/>
-    <hyperlink ref="F5" r:id="rId24"/>
-    <hyperlink ref="F6" r:id="rId25"/>
+    <hyperlink ref="I2" r:id="rId21"/>
+    <hyperlink ref="I3" r:id="rId22"/>
+    <hyperlink ref="I4" r:id="rId23"/>
+    <hyperlink ref="I5" r:id="rId24"/>
+    <hyperlink ref="I6" r:id="rId25"/>
+    <hyperlink ref="I2" r:id="rId21"/>
+    <hyperlink ref="I3" r:id="rId22"/>
+    <hyperlink ref="I4" r:id="rId23"/>
+    <hyperlink ref="I5" r:id="rId24"/>
+    <hyperlink ref="I6" r:id="rId25"/>
+    <hyperlink ref="I2" r:id="rId21"/>
+    <hyperlink ref="I3" r:id="rId22"/>
+    <hyperlink ref="I4" r:id="rId23"/>
+    <hyperlink ref="I5" r:id="rId24"/>
+    <hyperlink ref="I6" r:id="rId25"/>
+    <hyperlink ref="I2" r:id="rId21"/>
+    <hyperlink ref="I3" r:id="rId22"/>
+    <hyperlink ref="I4" r:id="rId23"/>
+    <hyperlink ref="I5" r:id="rId24"/>
+    <hyperlink ref="I6" r:id="rId25"/>
+    <hyperlink ref="I2" r:id="rId21"/>
+    <hyperlink ref="I3" r:id="rId22"/>
+    <hyperlink ref="I4" r:id="rId23"/>
+    <hyperlink ref="I5" r:id="rId24"/>
+    <hyperlink ref="I6" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
